--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3611681.539734058</v>
+        <v>3613442.070036843</v>
       </c>
     </row>
     <row r="7">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>55.35316080232846</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>130.1712092340069</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>163.0327445211356</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>28.91273366571172</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443465</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>71.43415993379426</v>
+        <v>155.503379824767</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404939</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714737</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276004</v>
+        <v>92.85788772760094</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425906</v>
+        <v>23.94240680425995</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372558</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>14.56939904993461</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>14.569399049946</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.617008478530631</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>118.3213238908452</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304048</v>
+        <v>30.24193919304092</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589206</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>238.304863931489</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.4727983501231</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>86.18875797621889</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>31.68046530976811</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>144.8789500373951</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>21.63824106825082</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>138.9514371171571</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>14.92158678358429</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428172</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722639</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176199</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>112.5005260950196</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187849</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>104.8913819999783</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540.7559564928858</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764009</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4327,55 +4327,55 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262262</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262262</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262262</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U2" t="n">
-        <v>540.7559564928858</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="V2" t="n">
-        <v>540.7559564928858</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="W2" t="n">
-        <v>540.7559564928858</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="X2" t="n">
-        <v>540.7559564928858</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="Y2" t="n">
-        <v>540.7559564928858</v>
+        <v>589.7227393823975</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>458.313241129427</v>
+        <v>525.654732181024</v>
       </c>
       <c r="C3" t="n">
-        <v>458.313241129427</v>
+        <v>360.975192260685</v>
       </c>
       <c r="D3" t="n">
-        <v>458.313241129427</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264288</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264288</v>
+        <v>525.654732181024</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264288</v>
+        <v>525.654732181024</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264288</v>
+        <v>525.654732181024</v>
       </c>
       <c r="V3" t="n">
-        <v>647.7330261459119</v>
+        <v>525.654732181024</v>
       </c>
       <c r="W3" t="n">
-        <v>647.7330261459119</v>
+        <v>525.654732181024</v>
       </c>
       <c r="X3" t="n">
-        <v>647.7330261459119</v>
+        <v>525.654732181024</v>
       </c>
       <c r="Y3" t="n">
-        <v>458.313241129427</v>
+        <v>525.654732181024</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.1134763037624</v>
+        <v>978.1098746287763</v>
       </c>
       <c r="C5" t="n">
-        <v>571.1509593633507</v>
+        <v>609.1473576883645</v>
       </c>
       <c r="D5" t="n">
-        <v>212.8852607566002</v>
+        <v>609.1473576883645</v>
       </c>
       <c r="E5" t="n">
-        <v>212.8852607566002</v>
+        <v>609.1473576883645</v>
       </c>
       <c r="F5" t="n">
-        <v>140.7295436517575</v>
+        <v>452.0732366532463</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>439.6975955077419</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>128.3539025062533</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675736</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017204</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746987</v>
+        <v>277.9807166746945</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030771</v>
+        <v>521.2049416030709</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709192</v>
+        <v>823.5081935709102</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582753</v>
+        <v>1135.316836582742</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079241</v>
+        <v>1416.413635079227</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332759</v>
+        <v>1621.822248332743</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837885</v>
+        <v>1727.902815837868</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540654</v>
+        <v>1703.718566540635</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540654</v>
+        <v>1562.810726300983</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540654</v>
+        <v>1562.810726300983</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540654</v>
+        <v>1309.172761972347</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540654</v>
+        <v>978.1098746287763</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540654</v>
+        <v>978.1098746287763</v>
       </c>
       <c r="X5" t="n">
-        <v>1330.252808279574</v>
+        <v>978.1098746287763</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.1134763037624</v>
+        <v>978.1098746287763</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357.945495259136</v>
+        <v>372.6620599560393</v>
       </c>
       <c r="C6" t="n">
-        <v>183.492465978009</v>
+        <v>198.2090306749123</v>
       </c>
       <c r="D6" t="n">
-        <v>34.55805631675771</v>
+        <v>49.274621013661</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675771</v>
+        <v>49.274621013661</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675736</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675736</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675736</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675736</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478754</v>
+        <v>61.66788464787432</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806064</v>
+        <v>186.1577239806042</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189981</v>
+        <v>399.8722171189942</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223505</v>
+        <v>668.6238185223447</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352485</v>
+        <v>958.8971200352407</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.22068622831</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639498</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906538</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906538</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906538</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906538</v>
       </c>
       <c r="U6" t="n">
-        <v>1431.162096209635</v>
+        <v>1445.878660906538</v>
       </c>
       <c r="V6" t="n">
-        <v>1196.009987977892</v>
+        <v>1210.726552674796</v>
       </c>
       <c r="W6" t="n">
-        <v>941.7726312496907</v>
+        <v>956.489195946594</v>
       </c>
       <c r="X6" t="n">
-        <v>733.9211310441578</v>
+        <v>748.6376957410612</v>
       </c>
       <c r="Y6" t="n">
-        <v>526.160832279204</v>
+        <v>540.8773969761073</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.535052004086</v>
       </c>
       <c r="C7" t="n">
-        <v>363.13520263779</v>
+        <v>332.535052004086</v>
       </c>
       <c r="D7" t="n">
-        <v>213.0185632254543</v>
+        <v>213.0185632254544</v>
       </c>
       <c r="E7" t="n">
-        <v>65.10546964306123</v>
+        <v>65.10546964306133</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306123</v>
+        <v>65.10546964306133</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306123</v>
+        <v>65.10546964306133</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306123</v>
+        <v>65.10546964306133</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306123</v>
+        <v>65.10546964306133</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675736</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574695</v>
+        <v>64.24066662574587</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584116</v>
+        <v>132.1299861584096</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347974</v>
+        <v>206.9680378347944</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195369</v>
+        <v>287.8841338195329</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193472</v>
+        <v>342.3101561934671</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858008</v>
+        <v>369.8190495857951</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.535052004086</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.535052004086</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.535052004086</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.535052004086</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.535052004086</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.535052004086</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.535052004086</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.535052004086</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.535052004086</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.362210729296</v>
+        <v>1018.25489660364</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>649.2923796632278</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>291.0266810564773</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>291.0266810564773</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>284.0811803072739</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809306</v>
@@ -4804,13 +4804,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4846,10 +4846,10 @@
         <v>2168.459826904653</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>1794.994068643573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.962050793417</v>
+        <v>1404.854736667761</v>
       </c>
     </row>
     <row r="9">
@@ -4907,19 +4907,19 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1571.516725807463</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1343.415135940727</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1256.355784449597</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
         <v>1256.355784449597</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470405991</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="D10" t="n">
-        <v>370.1727076282633</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="E10" t="n">
-        <v>222.2596140458702</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F10" t="n">
-        <v>75.36966654795984</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>351.1240527763055</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>61.70688273934482</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,19 +5053,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
         <v>4606.28515749258</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>430.7826650753344</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>282.8695714929413</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5214,16 +5214,16 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235166</v>
@@ -5238,13 +5238,13 @@
         <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1360.39208240939</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.402531511373</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,7 +5287,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,49 +5755,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5995,19 +5995,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,7 +6253,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803936</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803936</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6706,46 +6706,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,34 +6837,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310022</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310022</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310022</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797183</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,49 +7156,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>123.7828069546804</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>147.5715612194339</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>133.6938862346281</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194217</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194222</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>62.35543909864951</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="12">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710692</v>
@@ -26325,19 +26325,19 @@
         <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="I2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
@@ -26346,16 +26346,16 @@
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055062</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253123</v>
+        <v>270592.362025308</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231927</v>
+        <v>115410.0540231971</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742655</v>
+        <v>601443.2075742659</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881968</v>
+        <v>62913.63765881868</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197488</v>
+        <v>27875.25362197592</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.4229263474</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26429,31 +26429,31 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
+        <v>14826.69604186731</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.69604186727</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14826.69604186726</v>
+      </c>
+      <c r="I4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.69604186746</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186742</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186742</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936821</v>
+        <v>76435.73471936786</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146889.5863955206</v>
+        <v>-146889.5863955203</v>
       </c>
       <c r="C6" t="n">
-        <v>226357.1617000427</v>
+        <v>226357.1617000459</v>
       </c>
       <c r="D6" t="n">
-        <v>405177.5554031065</v>
+        <v>405177.5554031021</v>
       </c>
       <c r="E6" t="n">
-        <v>49049.45701110896</v>
+        <v>49362.09834002981</v>
       </c>
       <c r="F6" t="n">
-        <v>650492.6645853749</v>
+        <v>650805.3059142962</v>
       </c>
       <c r="G6" t="n">
-        <v>650492.6645853746</v>
+        <v>650805.305914296</v>
       </c>
       <c r="H6" t="n">
-        <v>650492.6645853746</v>
+        <v>650805.3059142961</v>
       </c>
       <c r="I6" t="n">
-        <v>650492.6645853746</v>
+        <v>650805.3059142964</v>
       </c>
       <c r="J6" t="n">
-        <v>601427.71985683</v>
+        <v>601740.3611857513</v>
       </c>
       <c r="K6" t="n">
-        <v>587579.0269265549</v>
+        <v>587891.6682554772</v>
       </c>
       <c r="L6" t="n">
-        <v>622617.4109633995</v>
+        <v>622930.0522923198</v>
       </c>
       <c r="M6" t="n">
-        <v>493346.2840337763</v>
+        <v>493658.9253626975</v>
       </c>
       <c r="N6" t="n">
-        <v>650492.6645853741</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="O6" t="n">
-        <v>650492.6645853748</v>
+        <v>650805.305914296</v>
       </c>
       <c r="P6" t="n">
-        <v>650492.6645853743</v>
+        <v>650805.3059142961</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950617</v>
+        <v>758.8996292950582</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594713</v>
+        <v>431.975703959467</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821569</v>
+        <v>210.4296883821536</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262244</v>
+        <v>94.81103524262596</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039901</v>
+        <v>514.2648358039903</v>
       </c>
       <c r="F3" t="n">
-        <v>-9.606409576232392e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931471</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666962</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734856</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931471</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666962</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734859</v>
+        <v>630.5933313734856</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931471</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666962</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734856</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046874</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543628</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>351.5228849393829</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>120.9980513310234</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,16 +27460,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>9.675754467180155</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>203.8878534837135</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098424</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.2051017684966</v>
+        <v>93.2051017684968</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>335.4418858079172</v>
+        <v>251.3726659169444</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>130.4998133434493</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.47037835246138</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937514</v>
+        <v>43.3208508493754</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074793</v>
+        <v>44.33060630074841</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>141.3629830843608</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>193.5852120974428</v>
       </c>
       <c r="U6" t="n">
-        <v>211.2645915740531</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>160.6298126200972</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>30.29414912736715</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>150.0598964836598</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599132</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589153</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166227</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>173.5658709121378</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>185.7651403059305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>11.39188093250797</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>146.6118291732064</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>134.7710358011637</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28070,10 +28070,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>107.2586932864329</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29763,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.574471518870554e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085673</v>
+        <v>3.050852781085659</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429351</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.618001842805</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286691</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452027</v>
+        <v>388.0799144520252</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511777</v>
+        <v>481.4474502511755</v>
       </c>
       <c r="M5" t="n">
-        <v>535.70305339681</v>
+        <v>535.7030533968075</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610697</v>
+        <v>544.3712888610672</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191491</v>
+        <v>514.0343715191467</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860965</v>
+        <v>438.7164434860944</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634657</v>
+        <v>329.4577782634641</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.6431310098722</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898984</v>
+        <v>69.52130774898951</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920248</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868526</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.63235014603088</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403508</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062486</v>
+        <v>56.2015291506246</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475929</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316619</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172189</v>
+        <v>354.4276051721873</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658086</v>
+        <v>413.6002979658066</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468667</v>
+        <v>424.5470671468647</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374454</v>
+        <v>388.3776244374436</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872476</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.3680642547488</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632155</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947721</v>
+        <v>30.32018801947707</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378881</v>
+        <v>6.579516597378851</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757158</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.36850752823699</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377979</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734532</v>
+        <v>41.15475366734513</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635563</v>
+        <v>96.75348224635519</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260793</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162522</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.5197755399129</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.4189747528479</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275339</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650514992</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235538</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054711</v>
+        <v>61.53307486054683</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.8493539239119</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830801</v>
+        <v>5.847259438830774</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656352</v>
+        <v>0.07464586517656317</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31791,10 +31791,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990634</v>
+        <v>575.5951359912031</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>334.769386094615</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551115</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860832</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175702</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198405</v>
+        <v>77.89141170198286</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070464</v>
+        <v>167.9900634070446</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811905</v>
+        <v>245.6810352811883</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695373</v>
+        <v>305.3568201695348</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644788</v>
+        <v>314.9582252644763</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974623</v>
+        <v>283.9361600974599</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308269</v>
+        <v>207.4834477308249</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890162</v>
+        <v>107.1520883890147</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092697</v>
+        <v>27.38366498092623</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573029</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923148</v>
+        <v>215.8732253923131</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437903</v>
+        <v>271.4662640437883</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635334</v>
+        <v>293.2053550635313</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930009</v>
+        <v>245.7813799929991</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729188</v>
+        <v>177.7328761729174</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872827</v>
+        <v>68.3862901687273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554469</v>
+        <v>29.98243465554395</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501483</v>
+        <v>68.57507023501387</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230881</v>
+        <v>75.59399159230782</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761568</v>
+        <v>81.73343028761471</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569199</v>
+        <v>54.97578017569111</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235231</v>
+        <v>27.78676100235154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>303.878697277045</v>
+        <v>433.4611020691847</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.7949786802847</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075249</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902975</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
